--- a/Report/Benchmark.xlsx
+++ b/Report/Benchmark.xlsx
@@ -62,7 +62,7 @@
     <t>Built-in</t>
   </si>
   <si>
-    <t>99 10100 20200</t>
+    <t>2018 1000000 2000000</t>
   </si>
 </sst>
 </file>
@@ -392,12 +392,13 @@
   <dimension ref="B3:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">

--- a/Report/Benchmark.xlsx
+++ b/Report/Benchmark.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
   <si>
     <t>Insertion</t>
   </si>
@@ -62,7 +62,7 @@
     <t>Built-in</t>
   </si>
   <si>
-    <t>2018 1000000 2000000</t>
+    <t>2018 seed</t>
   </si>
 </sst>
 </file>
@@ -79,7 +79,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFB5CEA8"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -92,7 +91,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -100,13 +99,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -389,87 +404,380 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I9"/>
+  <dimension ref="A4:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>100000</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I3" t="s">
+      <c r="H4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>0.32915100000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="C5" s="1">
+        <v>25.463339000000001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>65.875699999999995</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1598.9562962055199</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.8440000000000001</v>
+      </c>
+      <c r="G5" s="1">
+        <v>6.0683373060000001</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1427.5592180000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5">
-        <v>0.53868700000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="C6" s="1">
+        <v>38.859090999999999</v>
+      </c>
+      <c r="D6" s="1">
+        <v>188.346</v>
+      </c>
+      <c r="E6" s="1">
+        <v>588.69804096221901</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="G6" s="1">
+        <v>77.639760694000003</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1616.2827010000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6">
-        <v>5.7250000000000001E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="C7" s="1">
+        <v>0.50191600000000003</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.145125</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.9140651226043701</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2.0470000000000002</v>
+      </c>
+      <c r="G7" s="1">
+        <v>8.1716796999999994E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1.116825</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7">
-        <v>4.3470000000000002E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="C8" s="1">
+        <v>7.1006E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.13309299999999999</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.1307988166809</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.266</v>
+      </c>
+      <c r="G8" s="1">
+        <v>7.4736734999999999E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3.028187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8">
-        <v>9.7129999999999994E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="C9" s="1">
+        <v>0.127132</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.15110599999999999</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3.4114570617675701</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.859</v>
+      </c>
+      <c r="G9" s="1">
+        <v>38.337238679000002</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.7042120000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D9">
-        <v>4.3990000000000001E-3</v>
+      <c r="C10" s="1">
+        <v>5.0146999999999997E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4.9035000000000002E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.101072788238525</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.141</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5.2960056999999998E-2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.153109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10000</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.30940699999999999</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.83559000000000005</v>
+      </c>
+      <c r="E13" s="1">
+        <v>13.845889091491699</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.105325551</v>
+      </c>
+      <c r="H13" s="1">
+        <v>11.369119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.43532100000000001</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.0254400000000001</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5.01357102394104</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.53361551200000001</v>
+      </c>
+      <c r="H14" s="1">
+        <v>14.972655</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>10000</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6.6889999999999996E-3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.2012E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.27321934700012201</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1.3383889E-2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.114081</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5.7369999999999999E-3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.8008E-2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.103074550628662</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G19" s="1">
+        <v>7.9903049999999996E-3</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.24116699999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.0047E-2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.6011999999999998E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.26916718482971103</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.35383694500000001</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.13111300000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4.4060000000000002E-3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.4004000000000001E-2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>9.9782943725585903E-3</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="G21" s="1">
+        <v>8.4624369999999997E-3</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1.1006999999999999E-2</v>
       </c>
     </row>
   </sheetData>
